--- a/STG_data.xlsx
+++ b/STG_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74D051-B257-C848-866D-CF2068DE7EE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1EC88F-04CE-2643-B85C-42B5C005B7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="-3900" windowWidth="38400" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="28800" yWindow="-3900" windowWidth="38400" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,9 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NG-0063</t>
-  </si>
-  <si>
     <t>url_genplus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,22 +264,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
     <t>2019-07-17T00:00:00Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-07-17T23:59:00Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4-0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4_recorder</t>
+  </si>
+  <si>
+    <t>SW_M4_V1_RECORDER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +356,12 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -414,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +458,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -785,7 +797,8 @@
     <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="31.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1">
@@ -826,10 +839,10 @@
         <v>57</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
@@ -846,16 +859,16 @@
         <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
@@ -870,7 +883,10 @@
         <v>51</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
@@ -887,16 +903,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
@@ -911,7 +927,10 @@
         <v>51</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
@@ -928,16 +947,16 @@
         <v>60</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -952,7 +971,10 @@
         <v>51</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
@@ -969,16 +991,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
@@ -993,7 +1015,10 @@
         <v>51</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1010,16 +1035,16 @@
         <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -1034,7 +1059,10 @@
         <v>51</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1051,16 +1079,16 @@
         <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
@@ -1075,7 +1103,10 @@
         <v>51</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1092,16 +1123,16 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
         <v>42</v>
@@ -1116,7 +1147,10 @@
         <v>51</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1133,16 +1167,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -1157,7 +1191,10 @@
         <v>51</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1174,16 +1211,16 @@
         <v>41</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>42</v>
@@ -1198,7 +1235,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>

--- a/STG_data.xlsx
+++ b/STG_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1EC88F-04CE-2643-B85C-42B5C005B7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C2728-5917-F84B-860F-E25B06D8BB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3900" windowWidth="38400" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="30820" yWindow="-3540" windowWidth="34060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -272,14 +272,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M4-0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M4_recorder</t>
   </si>
   <si>
-    <t>SW_M4_V1_RECORDER</t>
+    <t>M4-0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4-0101</t>
   </si>
 </sst>
 </file>
@@ -357,9 +357,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF505050"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF303942"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -779,15 +779,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
@@ -842,7 +842,7 @@
         <v>62</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -903,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -947,7 +947,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>64</v>
@@ -991,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>64</v>
@@ -1035,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>64</v>
@@ -1079,7 +1079,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>64</v>
@@ -1123,7 +1123,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>64</v>
@@ -1167,7 +1167,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>64</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>64</v>

--- a/STG_data.xlsx
+++ b/STG_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/Katalon_Script/SuperWild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C2728-5917-F84B-860F-E25B06D8BB46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5C2DA7-DC9F-6645-9B48-E45D1614DA9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30820" yWindow="-3540" windowWidth="34060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="5080" yWindow="600" windowWidth="22760" windowHeight="17540" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,29 +264,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-07-17T00:00:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-07-17T23:59:00Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4_recorder</t>
-  </si>
-  <si>
     <t>M4-0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4-0101</t>
+  </si>
+  <si>
+    <t>M4-0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-27T00:00:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-27T23:59:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_M4_V1_RECORDER</t>
+  </si>
+  <si>
+    <t>super wild XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +370,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -423,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +476,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -842,33 +860,33 @@
         <v>62</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
@@ -885,34 +903,34 @@
       <c r="M2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>69</v>
+      <c r="N2" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
@@ -929,34 +947,34 @@
       <c r="M3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>69</v>
+      <c r="N3" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -973,34 +991,34 @@
       <c r="M4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>69</v>
+      <c r="N4" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
         <v>42</v>
@@ -1017,34 +1035,34 @@
       <c r="M5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>69</v>
+      <c r="N5" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -1061,8 +1079,8 @@
       <c r="M6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>69</v>
+      <c r="N6" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1079,16 +1097,16 @@
         <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
@@ -1105,8 +1123,8 @@
       <c r="M7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>69</v>
+      <c r="N7" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1123,16 +1141,16 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
         <v>42</v>
@@ -1149,8 +1167,8 @@
       <c r="M8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>69</v>
+      <c r="N8" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1167,16 +1185,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -1193,8 +1211,8 @@
       <c r="M9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>69</v>
+      <c r="N9" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
@@ -1211,16 +1229,16 @@
         <v>41</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
         <v>42</v>
@@ -1237,8 +1255,8 @@
       <c r="M10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>69</v>
+      <c r="N10" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>
@@ -1247,16 +1265,23 @@
     <row r="14" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="16" spans="1:14" s="2" customFormat="1" ht="20"/>
-    <row r="17" s="2" customFormat="1" ht="20"/>
-    <row r="18" s="2" customFormat="1" ht="20"/>
-    <row r="19" s="2" customFormat="1" ht="20"/>
-    <row r="20" s="2" customFormat="1" ht="20"/>
-    <row r="21" s="2" customFormat="1" ht="20"/>
-    <row r="22" s="2" customFormat="1" ht="20"/>
-    <row r="23" s="2" customFormat="1" ht="20"/>
-    <row r="24" s="4" customFormat="1" ht="25"/>
-    <row r="25" s="4" customFormat="1" ht="25"/>
-    <row r="26" s="4" customFormat="1" ht="25"/>
+    <row r="17" spans="14:15" s="2" customFormat="1" ht="20">
+      <c r="N17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="19" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="20" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="21" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="22" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="23" spans="14:15" s="2" customFormat="1" ht="20"/>
+    <row r="24" spans="14:15" s="4" customFormat="1" ht="25"/>
+    <row r="25" spans="14:15" s="4" customFormat="1" ht="25"/>
+    <row r="26" spans="14:15" s="4" customFormat="1" ht="25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
